--- a/StructureDefinition-patient-favorite-color.xlsx
+++ b/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T19:03:26+00:00</t>
+    <t>2025-08-26T20:22:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-favorite-color.xlsx
+++ b/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-26T20:22:10+00:00</t>
+    <t>2025-09-18T12:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-patient-favorite-color.xlsx
+++ b/StructureDefinition-patient-favorite-color.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:32:11+00:00</t>
+    <t>2025-09-19T13:12:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
